--- a/Model/GOOG.xlsx
+++ b/Model/GOOG.xlsx
@@ -1,27 +1,174 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minhv\OneDrive\Documents\GitHub\models\modelz\Model\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04F436B7-DD85-4D05-AA33-39BE24835291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">Sheet2!$J$21</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">Sheet2!$J$25</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0.1</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
+  <si>
+    <t>What is a non-obvious competitive advantage you feel the team has at its disposal? </t>
+  </si>
+  <si>
+    <t>What are some of the key challenges you face to continued success? </t>
+  </si>
+  <si>
+    <t>What companies are you most excited about within the portfolio? </t>
+  </si>
+  <si>
+    <t>What else should I know about the role and/or firm that we have not discussed? </t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>YT</t>
+  </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>Advertising</t>
+  </si>
+  <si>
+    <t>Subscriptions</t>
+  </si>
+  <si>
+    <t>Cloud</t>
+  </si>
+  <si>
+    <t>Other bets</t>
+  </si>
+  <si>
+    <t>Net income</t>
+  </si>
+  <si>
+    <t>Change in NWC</t>
+  </si>
+  <si>
+    <t>CAPEX</t>
+  </si>
+  <si>
+    <t>D&amp;A</t>
+  </si>
+  <si>
+    <t>NWC</t>
+  </si>
+  <si>
+    <t>Current Liabilities</t>
+  </si>
+  <si>
+    <t>Current Assets</t>
+  </si>
+  <si>
+    <t>Less cash</t>
+  </si>
+  <si>
+    <t>Total Debt</t>
+  </si>
+  <si>
+    <t>S/O</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t>FCFF</t>
+  </si>
+  <si>
+    <t>FCFF Yield</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -37,7 +184,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,14 +192,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +501,770 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="N8:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="8" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6208665F-B13F-4C45-9260-BB7871DAEEE9}">
+  <dimension ref="B2:J37"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>2022</v>
+      </c>
+      <c r="D2">
+        <f>+C2+1</f>
+        <v>2023</v>
+      </c>
+      <c r="E2">
+        <f>+D2+1</f>
+        <v>2024</v>
+      </c>
+      <c r="H2">
+        <f>+C2</f>
+        <v>2022</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:J2" si="0">+D2</f>
+        <v>2023</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5">
+        <f>+C4+C9+C10</f>
+        <v>280876</v>
+      </c>
+      <c r="D3" s="5">
+        <f t="shared" ref="D3:E3" si="1">+D4+D9+D10</f>
+        <v>307158</v>
+      </c>
+      <c r="E3" s="5">
+        <f t="shared" si="1"/>
+        <v>349807</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="5">
+        <v>59972</v>
+      </c>
+      <c r="I3" s="5">
+        <v>73795</v>
+      </c>
+      <c r="J3" s="5">
+        <v>100118</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5">
+        <f>+SUM(C5:C8)</f>
+        <v>253528</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" ref="D4:E4" si="2">+SUM(D5:D8)</f>
+        <v>272543</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" si="2"/>
+        <v>304930</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5">
+        <v>162450</v>
+      </c>
+      <c r="D5" s="5">
+        <v>175033</v>
+      </c>
+      <c r="E5" s="5">
+        <v>198084</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="5">
+        <v>13475</v>
+      </c>
+      <c r="I5" s="5">
+        <v>11946</v>
+      </c>
+      <c r="J5" s="5">
+        <v>15311</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5">
+        <v>29243</v>
+      </c>
+      <c r="D6" s="5">
+        <v>31510</v>
+      </c>
+      <c r="E6" s="5">
+        <v>36147</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5">
+        <f>+I14</f>
+        <v>-7948</v>
+      </c>
+      <c r="J6" s="5">
+        <f>+J14</f>
+        <v>-14545</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="7">
+        <v>32780</v>
+      </c>
+      <c r="D7" s="5">
+        <v>31312</v>
+      </c>
+      <c r="E7" s="5">
+        <v>30359</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="10">
+        <v>-20298</v>
+      </c>
+      <c r="I7" s="10">
+        <v>-27063</v>
+      </c>
+      <c r="J7" s="10">
+        <v>-45536</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5">
+        <v>29055</v>
+      </c>
+      <c r="D8" s="5">
+        <v>34688</v>
+      </c>
+      <c r="E8" s="5">
+        <v>40340</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="5">
+        <f>+H3+H5-H6-H7</f>
+        <v>93745</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" ref="I8:J8" si="3">+I3+I5-I6-I7</f>
+        <v>120752</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="3"/>
+        <v>175510</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5">
+        <v>26280</v>
+      </c>
+      <c r="D9" s="5">
+        <v>33088</v>
+      </c>
+      <c r="E9" s="5">
+        <v>43229</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1068</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1527</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1648</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="5">
+        <v>164795</v>
+      </c>
+      <c r="I10" s="5">
+        <v>171530</v>
+      </c>
+      <c r="J10" s="5">
+        <v>163711</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="G11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="5">
+        <v>21879</v>
+      </c>
+      <c r="I11" s="5">
+        <v>24048</v>
+      </c>
+      <c r="J11" s="5">
+        <v>23466</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6">
+        <f t="shared" ref="D12:E12" si="4">+D3/C3-1</f>
+        <v>9.3571540466255598E-2</v>
+      </c>
+      <c r="E12" s="6">
+        <f>+E3/D3-1</f>
+        <v>0.13885036365648951</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="5">
+        <v>69300</v>
+      </c>
+      <c r="I12" s="5">
+        <v>81814</v>
+      </c>
+      <c r="J12" s="5">
+        <v>89122</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6">
+        <f t="shared" ref="D13:E13" si="5">+D4/C4-1</f>
+        <v>7.5001577735003711E-2</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" si="5"/>
+        <v>0.11883262457667221</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="5">
+        <f>+H10-H11-H12</f>
+        <v>73616</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" ref="I13:J13" si="6">+I10-I11-I12</f>
+        <v>65668</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" si="6"/>
+        <v>51123</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6">
+        <f t="shared" ref="D14:E14" si="7">+D5/C5-1</f>
+        <v>7.7457679285934056E-2</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="7"/>
+        <v>0.13169516605440124</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5">
+        <f>+I13-H13</f>
+        <v>-7948</v>
+      </c>
+      <c r="J14" s="5">
+        <f>+J13-I13</f>
+        <v>-14545</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6">
+        <f t="shared" ref="D15:E15" si="8">+D6/C6-1</f>
+        <v>7.7522825975447018E-2</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" si="8"/>
+        <v>0.14715963186290071</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6">
+        <f t="shared" ref="D16:E16" si="9">+D7/C7-1</f>
+        <v>-4.4783404514948111E-2</v>
+      </c>
+      <c r="E16" s="6">
+        <f t="shared" si="9"/>
+        <v>-3.0435615738375055E-2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="5">
+        <v>15000</v>
+      </c>
+      <c r="I16" s="5">
+        <v>15000</v>
+      </c>
+      <c r="J16" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6">
+        <f t="shared" ref="D17:E17" si="10">+D8/C8-1</f>
+        <v>0.19387368783341929</v>
+      </c>
+      <c r="E17" s="6">
+        <f t="shared" si="10"/>
+        <v>0.16293819188191883</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" ref="H17:I17" si="11">+H16-H11</f>
+        <v>-6879</v>
+      </c>
+      <c r="I17" s="5">
+        <f t="shared" si="11"/>
+        <v>-9048</v>
+      </c>
+      <c r="J17" s="5">
+        <f>+J16-J11</f>
+        <v>-8466</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6">
+        <f t="shared" ref="D18:E18" si="12">+D9/C9-1</f>
+        <v>0.25905631659056327</v>
+      </c>
+      <c r="E18" s="6">
+        <f t="shared" si="12"/>
+        <v>0.30648573500967125</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6">
+        <f t="shared" ref="D19:E19" si="13">+D10/C10-1</f>
+        <v>0.4297752808988764</v>
+      </c>
+      <c r="E19" s="6">
+        <f t="shared" si="13"/>
+        <v>7.9240340537000575E-2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="5">
+        <v>12500</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6">
+        <f>+E3/C3-1</f>
+        <v>0.24541434654438254</v>
+      </c>
+      <c r="H21" s="5">
+        <v>134</v>
+      </c>
+      <c r="I21" s="5">
+        <v>100</v>
+      </c>
+      <c r="J21" s="5">
+        <v>139.20792710148189</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6">
+        <f t="shared" ref="E22:E28" si="14">+E4/C4-1</f>
+        <v>0.20274683664131765</v>
+      </c>
+      <c r="H22" s="5">
+        <f>+$H$19*H21</f>
+        <v>1675000</v>
+      </c>
+      <c r="I22" s="5">
+        <f t="shared" ref="I22:J22" si="15">+$H$19*I21</f>
+        <v>1250000</v>
+      </c>
+      <c r="J22" s="5">
+        <f t="shared" si="15"/>
+        <v>1740099.0887685237</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6">
+        <f t="shared" si="14"/>
+        <v>0.21935364727608486</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6">
+        <f t="shared" si="14"/>
+        <v>0.23609068836986635</v>
+      </c>
+      <c r="G24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="8">
+        <f>+H16+H22</f>
+        <v>1690000</v>
+      </c>
+      <c r="I24" s="8">
+        <f t="shared" ref="I24:J24" si="16">+I16+I22</f>
+        <v>1265000</v>
+      </c>
+      <c r="J24" s="8">
+        <f t="shared" si="16"/>
+        <v>1755099.0887685237</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6">
+        <f t="shared" si="14"/>
+        <v>-7.3856009762049979E-2</v>
+      </c>
+      <c r="G25" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="11">
+        <f>+H8/H24</f>
+        <v>5.5470414201183434E-2</v>
+      </c>
+      <c r="I25" s="11">
+        <f t="shared" ref="I25:J25" si="17">+I8/I24</f>
+        <v>9.5456126482213438E-2</v>
+      </c>
+      <c r="J25" s="11">
+        <f t="shared" si="17"/>
+        <v>0.10000005191909005</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6">
+        <f t="shared" si="14"/>
+        <v>0.38840130786439508</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6">
+        <f t="shared" si="14"/>
+        <v>0.64493911719939123</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6">
+        <f t="shared" si="14"/>
+        <v>0.54307116104868913</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="6">
+        <f>+C3/$C$3</f>
+        <v>1</v>
+      </c>
+      <c r="D30" s="6">
+        <f>+D3/$D$3</f>
+        <v>1</v>
+      </c>
+      <c r="E30" s="6">
+        <f>+E3/$E$3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="6">
+        <f t="shared" ref="C31:C37" si="18">+C4/$C$3</f>
+        <v>0.90263319044703005</v>
+      </c>
+      <c r="D31" s="6">
+        <f t="shared" ref="D31:D37" si="19">+D4/$D$3</f>
+        <v>0.88730555609816442</v>
+      </c>
+      <c r="E31" s="6">
+        <f>+E4/$E$3</f>
+        <v>0.8717092568187601</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="6">
+        <f t="shared" si="18"/>
+        <v>0.57836910237969785</v>
+      </c>
+      <c r="D32" s="6">
+        <f t="shared" si="19"/>
+        <v>0.56984678894900997</v>
+      </c>
+      <c r="E32" s="6">
+        <f>+E5/$E$3</f>
+        <v>0.56626654126418285</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="6">
+        <f t="shared" si="18"/>
+        <v>0.10411355900824563</v>
+      </c>
+      <c r="D33" s="6">
+        <f t="shared" si="19"/>
+        <v>0.10258563996379713</v>
+      </c>
+      <c r="E33" s="6">
+        <f>+E6/$E$3</f>
+        <v>0.10333412424565547</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="6">
+        <f t="shared" si="18"/>
+        <v>0.11670630456144349</v>
+      </c>
+      <c r="D34" s="6">
+        <f t="shared" si="19"/>
+        <v>0.10194102058224107</v>
+      </c>
+      <c r="E34" s="6">
+        <f>+E7/$E$3</f>
+        <v>8.6787857304170588E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="6">
+        <f t="shared" si="18"/>
+        <v>0.10344422449764309</v>
+      </c>
+      <c r="D35" s="6">
+        <f t="shared" si="19"/>
+        <v>0.11293210660311631</v>
+      </c>
+      <c r="E35" s="6">
+        <f>+E8/$E$3</f>
+        <v>0.11532073400475119</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="6">
+        <f t="shared" si="18"/>
+        <v>9.356441988635554E-2</v>
+      </c>
+      <c r="D36" s="6">
+        <f t="shared" si="19"/>
+        <v>0.1077230610955925</v>
+      </c>
+      <c r="E36" s="6">
+        <f>+E9/$E$3</f>
+        <v>0.12357957387931059</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="6">
+        <f t="shared" si="18"/>
+        <v>3.8023896666144492E-3</v>
+      </c>
+      <c r="D37" s="6">
+        <f t="shared" si="19"/>
+        <v>4.971382806243041E-3</v>
+      </c>
+      <c r="E37" s="6">
+        <f>+E10/$E$3</f>
+        <v>4.7111693019293499E-3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Model/GOOG.xlsx
+++ b/Model/GOOG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minhv\OneDrive\Documents\GitHub\models\modelz\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04F436B7-DD85-4D05-AA33-39BE24835291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4D3999-57D8-41B0-A008-876878CC772B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6405" yWindow="1170" windowWidth="23865" windowHeight="15450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -206,10 +206,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -221,6 +220,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -237,6 +243,1059 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$30:$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Revenue</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Advertising</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Search</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>YT</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Network</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Subscriptions</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Cloud</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Other bets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$30:$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90263319044703005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57836910237969785</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10411355900824563</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11670630456144349</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10344422449764309</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.356441988635554E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8023896666144492E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0DFA-4862-B789-32988C53D0B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$30:$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Revenue</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Advertising</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Search</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>YT</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Network</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Subscriptions</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Cloud</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Other bets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$30:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88730555609816442</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56984678894900997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10258563996379713</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10194102058224107</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11293210660311631</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1077230610955925</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.971382806243041E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0DFA-4862-B789-32988C53D0B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$30:$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Revenue</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Advertising</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Search</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>YT</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Network</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Subscriptions</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Cloud</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Other bets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$30:$E$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8717092568187601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56626654126418285</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10333412424565547</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6787857304170588E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11532073400475119</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12357957387931059</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.7111693019293499E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0DFA-4862-B789-32988C53D0B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="303116656"/>
+        <c:axId val="303108016"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="303116656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="303108016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="303108016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="303116656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC66DC3B-C89B-88A4-DCE7-F8AD07B4D681}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -539,13 +1598,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6208665F-B13F-4C45-9260-BB7871DAEEE9}">
   <dimension ref="B2:J37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
@@ -553,14 +1613,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C2">
+      <c r="B2" s="8"/>
+      <c r="C2" s="12">
         <v>2022</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="12">
         <f>+C2+1</f>
         <v>2023</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="12">
         <f>+D2+1</f>
         <v>2024</v>
       </c>
@@ -578,693 +1639,700 @@
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="11">
         <f>+C4+C9+C10</f>
         <v>280876</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="11">
         <f t="shared" ref="D3:E3" si="1">+D4+D9+D10</f>
         <v>307158</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="11">
         <f t="shared" si="1"/>
         <v>349807</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>59972</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <v>73795</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <v>100118</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="11">
         <f>+SUM(C5:C8)</f>
         <v>253528</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="11">
         <f t="shared" ref="D4:E4" si="2">+SUM(D5:D8)</f>
         <v>272543</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="11">
         <f t="shared" si="2"/>
         <v>304930</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>162450</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>175033</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>198084</v>
       </c>
       <c r="G5" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>13475</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>11946</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>15311</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>29243</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>31510</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>36147</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5">
+      <c r="H6" s="4"/>
+      <c r="I6" s="4">
         <f>+I14</f>
         <v>-7948</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <f>+J14</f>
         <v>-14545</v>
       </c>
     </row>
     <row r="7" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>32780</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>31312</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>30359</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="9">
         <v>-20298</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="9">
         <v>-27063</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="9">
         <v>-45536</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>29055</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>34688</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>40340</v>
       </c>
       <c r="G8" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <f>+H3+H5-H6-H7</f>
         <v>93745</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <f t="shared" ref="I8:J8" si="3">+I3+I5-I6-I7</f>
         <v>120752</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="4">
         <f t="shared" si="3"/>
         <v>175510</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="11">
         <v>26280</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="11">
         <v>33088</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="11">
         <v>43229</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="11">
         <v>1068</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="11">
         <v>1527</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="11">
         <v>1648</v>
       </c>
       <c r="G10" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <v>164795</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <v>171530</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="4">
         <v>163711</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="G11" s="3" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="G11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>21879</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <v>24048</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <v>23466</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6">
-        <f t="shared" ref="D12:E12" si="4">+D3/C3-1</f>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13">
+        <f t="shared" ref="D12" si="4">+D3/C3-1</f>
         <v>9.3571540466255598E-2</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="13">
         <f>+E3/D3-1</f>
         <v>0.13885036365648951</v>
       </c>
       <c r="G12" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <v>69300</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="4">
         <v>81814</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <v>89122</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6">
+      <c r="C13" s="13"/>
+      <c r="D13" s="13">
         <f t="shared" ref="D13:E13" si="5">+D4/C4-1</f>
         <v>7.5001577735003711E-2</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="13">
         <f t="shared" si="5"/>
         <v>0.11883262457667221</v>
       </c>
       <c r="G13" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <f>+H10-H11-H12</f>
         <v>73616</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="4">
         <f t="shared" ref="I13:J13" si="6">+I10-I11-I12</f>
         <v>65668</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="4">
         <f t="shared" si="6"/>
         <v>51123</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5">
         <f t="shared" ref="D14:E14" si="7">+D5/C5-1</f>
         <v>7.7457679285934056E-2</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <f t="shared" si="7"/>
         <v>0.13169516605440124</v>
       </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5">
+      <c r="H14" s="4"/>
+      <c r="I14" s="4">
         <f>+I13-H13</f>
         <v>-7948</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="4">
         <f>+J13-I13</f>
         <v>-14545</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5">
         <f t="shared" ref="D15:E15" si="8">+D6/C6-1</f>
         <v>7.7522825975447018E-2</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <f t="shared" si="8"/>
         <v>0.14715963186290071</v>
       </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5">
         <f t="shared" ref="D16:E16" si="9">+D7/C7-1</f>
         <v>-4.4783404514948111E-2</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <f t="shared" si="9"/>
         <v>-3.0435615738375055E-2</v>
       </c>
       <c r="G16" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <v>15000</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="4">
         <v>15000</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="4">
         <v>15000</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="B17" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6">
+      <c r="C17" s="13"/>
+      <c r="D17" s="15">
         <f t="shared" ref="D17:E17" si="10">+D8/C8-1</f>
         <v>0.19387368783341929</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="15">
         <f t="shared" si="10"/>
         <v>0.16293819188191883</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="4">
         <f t="shared" ref="H17:I17" si="11">+H16-H11</f>
         <v>-6879</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="4">
         <f t="shared" si="11"/>
         <v>-9048</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="4">
         <f>+J16-J11</f>
         <v>-8466</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6">
+      <c r="C18" s="13"/>
+      <c r="D18" s="13">
         <f t="shared" ref="D18:E18" si="12">+D9/C9-1</f>
         <v>0.25905631659056327</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="13">
         <f t="shared" si="12"/>
         <v>0.30648573500967125</v>
       </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6">
+      <c r="C19" s="13"/>
+      <c r="D19" s="13">
         <f t="shared" ref="D19:E19" si="13">+D10/C10-1</f>
         <v>0.4297752808988764</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="13">
         <f t="shared" si="13"/>
         <v>7.9240340537000575E-2</v>
       </c>
       <c r="G19" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="4">
         <v>12500</v>
       </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6">
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13">
         <f>+E3/C3-1</f>
         <v>0.24541434654438254</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="4">
         <v>134</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="4">
         <v>100</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="4">
         <v>139.20792710148189</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6">
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13">
         <f t="shared" ref="E22:E28" si="14">+E4/C4-1</f>
         <v>0.20274683664131765</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="4">
         <f>+$H$19*H21</f>
         <v>1675000</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="4">
         <f t="shared" ref="I22:J22" si="15">+$H$19*I21</f>
         <v>1250000</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="4">
         <f t="shared" si="15"/>
         <v>1740099.0887685237</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5">
         <f t="shared" si="14"/>
         <v>0.21935364727608486</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6">
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5">
         <f t="shared" si="14"/>
         <v>0.23609068836986635</v>
       </c>
       <c r="G24" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="7">
         <f>+H16+H22</f>
         <v>1690000</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="7">
         <f t="shared" ref="I24:J24" si="16">+I16+I22</f>
         <v>1265000</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24" s="7">
         <f t="shared" si="16"/>
         <v>1755099.0887685237</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6">
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5">
         <f t="shared" si="14"/>
         <v>-7.3856009762049979E-2</v>
       </c>
       <c r="G25" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="10">
         <f>+H8/H24</f>
         <v>5.5470414201183434E-2</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I25" s="10">
         <f t="shared" ref="I25:J25" si="17">+I8/I24</f>
         <v>9.5456126482213438E-2</v>
       </c>
-      <c r="J25" s="11">
+      <c r="J25" s="10">
         <f t="shared" si="17"/>
         <v>0.10000005191909005</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="B26" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6">
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="15">
         <f t="shared" si="14"/>
         <v>0.38840130786439508</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6">
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13">
         <f t="shared" si="14"/>
         <v>0.64493911719939123</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6">
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13">
         <f t="shared" si="14"/>
         <v>0.54307116104868913</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="13">
         <f>+C3/$C$3</f>
         <v>1</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="13">
         <f>+D3/$D$3</f>
         <v>1</v>
       </c>
-      <c r="E30" s="6">
-        <f>+E3/$E$3</f>
+      <c r="E30" s="13">
+        <f t="shared" ref="E30:E37" si="18">+E3/$E$3</f>
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="6">
-        <f t="shared" ref="C31:C37" si="18">+C4/$C$3</f>
+      <c r="C31" s="13">
+        <f t="shared" ref="C31:C37" si="19">+C4/$C$3</f>
         <v>0.90263319044703005</v>
       </c>
-      <c r="D31" s="6">
-        <f t="shared" ref="D31:D37" si="19">+D4/$D$3</f>
+      <c r="D31" s="13">
+        <f t="shared" ref="D31:D37" si="20">+D4/$D$3</f>
         <v>0.88730555609816442</v>
       </c>
-      <c r="E31" s="6">
-        <f>+E4/$E$3</f>
+      <c r="E31" s="13">
+        <f t="shared" si="18"/>
         <v>0.8717092568187601</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="5">
+        <f t="shared" si="19"/>
+        <v>0.57836910237969785</v>
+      </c>
+      <c r="D32" s="5">
+        <f t="shared" si="20"/>
+        <v>0.56984678894900997</v>
+      </c>
+      <c r="E32" s="5">
         <f t="shared" si="18"/>
-        <v>0.57836910237969785</v>
-      </c>
-      <c r="D32" s="6">
+        <v>0.56626654126418285</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="5">
         <f t="shared" si="19"/>
-        <v>0.56984678894900997</v>
-      </c>
-      <c r="E32" s="6">
-        <f>+E5/$E$3</f>
-        <v>0.56626654126418285</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="6">
+        <v>0.10411355900824563</v>
+      </c>
+      <c r="D33" s="5">
+        <f t="shared" si="20"/>
+        <v>0.10258563996379713</v>
+      </c>
+      <c r="E33" s="5">
         <f t="shared" si="18"/>
-        <v>0.10411355900824563</v>
-      </c>
-      <c r="D33" s="6">
+        <v>0.10333412424565547</v>
+      </c>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="5">
         <f t="shared" si="19"/>
-        <v>0.10258563996379713</v>
-      </c>
-      <c r="E33" s="6">
-        <f>+E6/$E$3</f>
-        <v>0.10333412424565547</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="6">
+        <v>0.11670630456144349</v>
+      </c>
+      <c r="D34" s="5">
+        <f t="shared" si="20"/>
+        <v>0.10194102058224107</v>
+      </c>
+      <c r="E34" s="5">
         <f t="shared" si="18"/>
-        <v>0.11670630456144349</v>
-      </c>
-      <c r="D34" s="6">
+        <v>8.6787857304170588E-2</v>
+      </c>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="15">
         <f t="shared" si="19"/>
-        <v>0.10194102058224107</v>
-      </c>
-      <c r="E34" s="6">
-        <f>+E7/$E$3</f>
-        <v>8.6787857304170588E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="6">
+        <v>0.10344422449764309</v>
+      </c>
+      <c r="D35" s="15">
+        <f t="shared" si="20"/>
+        <v>0.11293210660311631</v>
+      </c>
+      <c r="E35" s="15">
         <f t="shared" si="18"/>
-        <v>0.10344422449764309</v>
-      </c>
-      <c r="D35" s="6">
+        <v>0.11532073400475119</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="13">
         <f t="shared" si="19"/>
-        <v>0.11293210660311631</v>
-      </c>
-      <c r="E35" s="6">
-        <f>+E8/$E$3</f>
-        <v>0.11532073400475119</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="6">
+        <v>9.356441988635554E-2</v>
+      </c>
+      <c r="D36" s="13">
+        <f t="shared" si="20"/>
+        <v>0.1077230610955925</v>
+      </c>
+      <c r="E36" s="13">
         <f t="shared" si="18"/>
-        <v>9.356441988635554E-2</v>
-      </c>
-      <c r="D36" s="6">
+        <v>0.12357957387931059</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="13">
         <f t="shared" si="19"/>
-        <v>0.1077230610955925</v>
-      </c>
-      <c r="E36" s="6">
-        <f>+E9/$E$3</f>
-        <v>0.12357957387931059</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="6">
+        <v>3.8023896666144492E-3</v>
+      </c>
+      <c r="D37" s="13">
+        <f t="shared" si="20"/>
+        <v>4.971382806243041E-3</v>
+      </c>
+      <c r="E37" s="13">
         <f t="shared" si="18"/>
-        <v>3.8023896666144492E-3</v>
-      </c>
-      <c r="D37" s="6">
-        <f t="shared" si="19"/>
-        <v>4.971382806243041E-3</v>
-      </c>
-      <c r="E37" s="6">
-        <f>+E10/$E$3</f>
         <v>4.7111693019293499E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>